--- a/Income/DTE_inc.xlsx
+++ b/Income/DTE_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.2047</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.1943</v>
+        <v>0.2822</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.257</v>
+        <v>0.3458</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.314</v>
+        <v>0.4008</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3762</v>
+        <v>0.4592</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.4337</v>
@@ -2108,16 +2108,16 @@
         <v>0.1617</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1611</v>
+        <v>0.1605</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1499</v>
+        <v>0.1493</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.1413</v>
+        <v>0.1407</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1353</v>
+        <v>0.1347</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1224</v>
@@ -2235,16 +2235,16 @@
         <v>0.1252</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1258</v>
+        <v>0.1253</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1127</v>
+        <v>0.1122</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1034</v>
+        <v>0.103</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1049</v>
+        <v>0.1045</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.0903</v>
@@ -2362,16 +2362,16 @@
         <v>0.1112</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.113</v>
+        <v>0.1126</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1014</v>
+        <v>0.101</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0914</v>
+        <v>0.091</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0926</v>
+        <v>0.0923</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0824</v>
@@ -2489,13 +2489,13 @@
         <v>-0.01</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.0152</v>
+        <v>-0.0153</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.0548</v>
+        <v>-0.0547</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-0.0457</v>
+        <v>-0.0456</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>-0.0275</v>
@@ -3505,16 +3505,16 @@
         <v>0.2919</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2798</v>
+        <v>0.2827</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.2645</v>
+        <v>0.2676</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2459</v>
+        <v>0.2489</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2362</v>
+        <v>0.2392</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.2182</v>
@@ -3632,16 +3632,16 @@
         <v>0.303</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2942</v>
+        <v>0.293</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2505</v>
+        <v>0.2494</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.2444</v>
+        <v>0.2433</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.21</v>
+        <v>0.2091</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1909</v>
